--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/采购合同签订审批表.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/采购合同签订审批表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>采购合同签订审批表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>交货时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,9 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>读取备注内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +259,10 @@
   </si>
   <si>
     <t>□含税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润率（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,24 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -539,6 +518,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -875,7 +872,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -888,59 +885,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -948,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,73 +959,73 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,117 +1053,115 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="13"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
